--- a/data/income_statement/2digits/size/52_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/52_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>52-Warehousing and support activities for transportation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>52-Warehousing and support activities for transportation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,638 +841,723 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2424672.28658</v>
+        <v>2531742.99728</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3730745.73125</v>
+        <v>3987747.79366</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>3994807.44643</v>
+        <v>4250099.12489</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4818633.803</v>
+        <v>5092383.05275</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5527936.06808</v>
+        <v>6036467.31881</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>7000155.61653</v>
+        <v>7419149.471459999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>8859241.96428</v>
+        <v>9339844.628719999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>8923362.88759</v>
+        <v>9100430.69826</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>11709702.04656</v>
+        <v>12081473.31568</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>14407816.62211</v>
+        <v>15704086.90696</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>17634886.28614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>19463855.88361</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>23527665.822</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1904579.60913</v>
+        <v>2004505.15801</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2653575.86794</v>
+        <v>2878873.32067</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2711117.44805</v>
+        <v>2896870.06617</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3384653.22122</v>
+        <v>3622559.38878</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3815782.99882</v>
+        <v>4146191.25035</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4745376.5826</v>
+        <v>5097749.026670001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>6246751.64031</v>
+        <v>6620100.96631</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>6085896.84089</v>
+        <v>6230408.32312</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>7571713.18992</v>
+        <v>7873882.78439</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>9724432.069599999</v>
+        <v>10854934.76715</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>11804397.787</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13384186.36458</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>14760472.761</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>473854.72934</v>
+        <v>481523.56508</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1036673.14811</v>
+        <v>1060639.66524</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1240801.29842</v>
+        <v>1295475.40257</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1376560.80735</v>
+        <v>1397825.77054</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1660051.30079</v>
+        <v>1843955.18553</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2180141.96197</v>
+        <v>2251147.4117</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2536656.5037</v>
+        <v>2657918.45383</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>2725773.21625</v>
+        <v>2777361.97276</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>3905048.71811</v>
+        <v>3997103.25067</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>4499074.882569999</v>
+        <v>4691513.07329</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>5542609.53207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5803352.718880001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>8439187.725</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>46237.94811</v>
+        <v>45714.27419</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>40496.71520000001</v>
+        <v>48234.80775</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>42888.69995999999</v>
+        <v>57753.65615</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>57419.77443</v>
+        <v>71997.89343</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>52101.76847</v>
+        <v>46320.88293</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>74637.07195999999</v>
+        <v>70253.03309</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>75833.82027000001</v>
+        <v>61825.20858</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>111692.83045</v>
+        <v>92660.40238</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>232940.13853</v>
+        <v>210487.28062</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>184309.66994</v>
+        <v>157639.06652</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>287878.96707</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>276316.80015</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>328005.336</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>13027.12122</v>
+        <v>14453.76838</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>17463.66374</v>
+        <v>18840.60562</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>20103.01189</v>
+        <v>21294.95247</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>15928.38766</v>
+        <v>18141.81154</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>27864.14694</v>
+        <v>28918.88516000001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>44939.99964</v>
+        <v>48556.12206</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1146042.64395</v>
+        <v>1150634.01826</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>95391.77816</v>
+        <v>93965.87906000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>127084.76557</v>
+        <v>165369.7916</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>191765.43141</v>
+        <v>317492.1606</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>195486.58589</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>346379.7019700001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>284205.386</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>5805.59775</v>
+        <v>6897.03227</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>7977.7817</v>
+        <v>8848.52382</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>17016.3646</v>
+        <v>16710.01962</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>11444.91461</v>
+        <v>12108.75347</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>12043.40657</v>
+        <v>12956.05474</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>27795.13426</v>
+        <v>29747.92791</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1117037.71177</v>
+        <v>1118382.68417</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>77225.51667</v>
+        <v>76057.63529000001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>107049.68506</v>
+        <v>99366.28328999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>162810.54345</v>
+        <v>173631.44639</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>162139.85111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>173671.16839</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>220129.076</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>2657.42533</v>
+        <v>2613.85039</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>3886.60321</v>
+        <v>3818.71205</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1974.02077</v>
+        <v>2056.62444</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>2564.47039</v>
+        <v>3023.94093</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>10434.74795</v>
+        <v>9948.86276</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>11423.35322</v>
+        <v>11269.68964</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>22923.5744</v>
+        <v>24854.99863</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>9959.705089999999</v>
+        <v>10426.3383</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>13192.59811</v>
+        <v>58676.68776</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>10393.95653</v>
+        <v>133146.21921</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>20189.48004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>159255.77392</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>46300.697</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>4564.09814</v>
+        <v>4942.88572</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>5599.27883</v>
+        <v>6173.36975</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1112.62652</v>
+        <v>2528.30841</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1919.00266</v>
+        <v>3009.11714</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>5385.99242</v>
+        <v>6013.96766</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>5721.51216</v>
+        <v>7538.50451</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>6081.35778</v>
+        <v>7396.33546</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>8206.556399999999</v>
+        <v>7481.90547</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>6842.482400000001</v>
+        <v>7326.820549999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>18560.93143</v>
+        <v>10714.495</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>13157.25474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>13452.75966</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>17775.613</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2411645.16536</v>
+        <v>2517289.2289</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3713282.06751</v>
+        <v>3968907.18804</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>3974704.43454</v>
+        <v>4228804.17242</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4802705.41534</v>
+        <v>5074241.24121</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>5500071.92114</v>
+        <v>6007548.43365</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>6955215.61689</v>
+        <v>7370593.349400001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>7713199.32033</v>
+        <v>8189210.61046</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>8827971.10943</v>
+        <v>9006464.819199998</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>11582617.28099</v>
+        <v>11916103.52408</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>14216051.1907</v>
+        <v>15386594.74636</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>17439399.70025</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>19117476.18164</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>23243460.436</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1969750.65888</v>
+        <v>2018633.01533</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>3101625.74571</v>
+        <v>3274505.09818</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3358189.66065</v>
+        <v>3534517.32682</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4063430.19231</v>
+        <v>4257335.48618</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4569307.17772</v>
+        <v>4871798.27543</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5910113.30075</v>
+        <v>6161033.51396</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6439256.144979999</v>
+        <v>6791162.533340001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>7490267.60887</v>
+        <v>7585112.42606</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>9747784.209460001</v>
+        <v>10051411.79047</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>11585230.74021</v>
+        <v>12597253.11963</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>14533417.72019</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16383759.06623</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>19653754.409</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>54503.29815</v>
+        <v>51368.56178</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>47675.70829</v>
+        <v>41859.36625</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>39738.48338000001</v>
+        <v>37825.22849</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>51029.13402</v>
+        <v>53291.94004000001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>30375.9145</v>
+        <v>30401.70708</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>106811.46028</v>
+        <v>108395.11338</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>93482.34402</v>
+        <v>109118.58187</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>34730.20678</v>
+        <v>33460.2003</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>66188.48407000001</v>
+        <v>56231.59006</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>37806.03907</v>
+        <v>26404.35789</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>207390.81982</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>187453.27995</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>312119.088</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>225014.04364</v>
+        <v>212992.5669</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>293742.26714</v>
+        <v>281127.04331</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>458428.60569</v>
+        <v>448273.45172</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>584473.21456</v>
+        <v>577652.8414400001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>620194.06464</v>
+        <v>624600.55321</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>786562.3979300001</v>
+        <v>774255.60138</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>770295.51006</v>
+        <v>757424.0510900001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>939736.2553899999</v>
+        <v>896045.6957899999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1591604.59038</v>
+        <v>1621256.58728</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>530238.71942</v>
+        <v>487528.40618</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1105562.33202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1062886.35129</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1766153.278</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1687218.43125</v>
+        <v>1750937.89239</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>2758936.63671</v>
+        <v>2949777.92817</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2857714.94309</v>
+        <v>3045520.02774</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>3419920.68132</v>
+        <v>3617543.05366</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3906052.47459</v>
+        <v>4211389.36473</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>4994643.59777</v>
+        <v>5256691.914109999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>5556719.83257</v>
+        <v>5898188.81289</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>6510857.43575</v>
+        <v>6642427.592069999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>8067735.751770001</v>
+        <v>8345139.53545</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>10997444.98575</v>
+        <v>12071086.72877</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>13144757.0368</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>15089845.80538</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>17514550.216</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>3014.88584</v>
+        <v>3333.99426</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1271.13357</v>
+        <v>1740.76045</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2307.62849</v>
+        <v>2898.61887</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>8007.16241</v>
+        <v>8847.651040000001</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>12684.72399</v>
+        <v>5406.65041</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>22095.84477</v>
+        <v>21690.88509</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>18758.45833</v>
+        <v>26431.08749</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>4943.71095</v>
+        <v>13178.9379</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>22255.38324</v>
+        <v>28784.07768</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>19740.99597</v>
+        <v>12233.62679</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>75707.53155000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>43573.62961</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>60931.827</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>441894.50648</v>
+        <v>498656.21357</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>611656.3217999999</v>
+        <v>694402.0898600001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>616514.77389</v>
+        <v>694286.8455999999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>739275.22303</v>
+        <v>816905.75503</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>930764.74342</v>
+        <v>1135750.15822</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1045102.31614</v>
+        <v>1209559.83544</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1273943.17535</v>
+        <v>1398048.07712</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1337703.50056</v>
+        <v>1421352.39314</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1834833.07153</v>
+        <v>1864691.73361</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2630820.45049</v>
+        <v>2789341.62673</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2905981.98006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2733717.115410001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3589706.027</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>301750.18711</v>
+        <v>341295.85212</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>393526.53503</v>
+        <v>472111.6479</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>426069.7927700001</v>
+        <v>507658.23923</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>509913.63592</v>
+        <v>568070.78136</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>638829.22557</v>
+        <v>724260.69635</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>739687.6371700001</v>
+        <v>931855.1920800001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>874603.8067899999</v>
+        <v>1172929.19347</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>978412.82594</v>
+        <v>1219627.64849</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1290705.36841</v>
+        <v>1656707.49764</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1444237.55556</v>
+        <v>1886274.5789</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1750032.18561</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2489241.53635</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2276227.558</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1583,7 +1569,7 @@
         <v>593.24612</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>155.93373</v>
+        <v>30.68299</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>40.42899</v>
@@ -1592,469 +1578,529 @@
         <v>0</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>51464.54194</v>
+        <v>51451.91452</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>55490.36498</v>
+        <v>55602.75771</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>75988.03408</v>
+        <v>75988.03368000001</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>490.50054</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4408.21115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1041.70956</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>890.561</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>28560.54671</v>
+        <v>32545.44662</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>38411.40758</v>
+        <v>42321.20077</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>50378.12716</v>
+        <v>55247.97782</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>45346.30746</v>
+        <v>55120.89556</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>62931.11644999999</v>
+        <v>79664.93898000001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>87864.02482999999</v>
+        <v>89832.64418</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>83215.05645</v>
+        <v>102197.83415</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>104695.46011</v>
+        <v>115342.26722</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>231744.89517</v>
+        <v>237181.92885</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>200331.67271</v>
+        <v>199603.13679</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>174459.05276</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>197380.01238</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>387788.213</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>273189.6404</v>
+        <v>308750.4055</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>355028.67522</v>
+        <v>429703.9949</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>375098.41949</v>
+        <v>451817.01529</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>464411.39473</v>
+        <v>512919.20281</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>575857.68013</v>
+        <v>644555.32838</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>651823.61234</v>
+        <v>842022.5479</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>739924.2084</v>
+        <v>1019279.4448</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>818227.0008500001</v>
+        <v>1048682.62356</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>982972.43916</v>
+        <v>1343537.53511</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1243415.38231</v>
+        <v>1686180.94157</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1571164.9217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2290819.81441</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1887548.784</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>140144.31937</v>
+        <v>157360.36145</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>218129.78677</v>
+        <v>222290.44196</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>190444.98112</v>
+        <v>186628.60637</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>229361.58711</v>
+        <v>248834.97367</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>291935.5178499999</v>
+        <v>411489.46187</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>305414.67897</v>
+        <v>277704.64336</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>399339.36856</v>
+        <v>225118.88365</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>359290.67462</v>
+        <v>201724.74465</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>544127.70312</v>
+        <v>207984.23597</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1186582.89493</v>
+        <v>903067.0478299999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1155949.79445</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>244475.57906</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1313478.469</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>171366.04968</v>
+        <v>265839.94575</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>235113.01632</v>
+        <v>267070.0006</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>253373.91215</v>
+        <v>323471.15808</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>176667.96392</v>
+        <v>254772.75421</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>381862.46097</v>
+        <v>468044.18052</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>497030.08818</v>
+        <v>679192.47658</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>863802.5824099999</v>
+        <v>1199281.06187</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>661525.68973</v>
+        <v>702234.8181400001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>674620.7052000001</v>
+        <v>1158049.06587</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2446574.2907</v>
+        <v>2928169.5629</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1535845.59761</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2617469.71785</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4314193.002</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>12270.25948</v>
+        <v>2383.6428</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>29612.36188</v>
+        <v>6634.886600000001</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>807.80949</v>
+        <v>13226.4814</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>994.71502</v>
+        <v>4205.80474</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>12777.67922</v>
+        <v>5759.835</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>33613.28454</v>
+        <v>17307.64211</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>24213.24462</v>
+        <v>6832.07062</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>35632.81589</v>
+        <v>3162.70754</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>59541.25526000001</v>
+        <v>2877.20479</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>62595.38516000001</v>
+        <v>29216.05722</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>70170.59934999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>44683.58251</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>7960.496</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>557.47132</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>83.33674999999999</v>
+        <v>12666.4524</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>114.01179</v>
+        <v>22842.61448</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>8.80991</v>
+        <v>11229.87532</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>4340.535110000001</v>
+        <v>5084.615049999999</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>14755.36078</v>
+        <v>37760.02509</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>5867.871529999999</v>
+        <v>135345.66892</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>19085.14769</v>
+        <v>15153.66263</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>19436.42985</v>
+        <v>206227.47219</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>30664.7912</v>
+        <v>14115.73281</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>37260.48165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>138641.61484</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>884.141</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>19962.33864</v>
+        <v>21701.4641</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>20849.53856</v>
+        <v>19087.4588</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>17633.05661</v>
+        <v>22024.67217</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>20956.229</v>
+        <v>31537.34854</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>27318.85019</v>
+        <v>42047.85603</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>37195.28838</v>
+        <v>66191.0938</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>35277.24063</v>
+        <v>82225.45814</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>50782.01316</v>
+        <v>72207.04033</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>63052.72845</v>
+        <v>100064.74887</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>166076.79671</v>
+        <v>143646.97102</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>201959.85698</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>257526.43806</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>183526.72</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>696.31715</v>
+        <v>1659.66355</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>4103.79187</v>
+        <v>2980.91631</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>6111.51242</v>
+        <v>7312.41748</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>3319.33112</v>
+        <v>3403.26127</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>2933.48522</v>
+        <v>2767.73888</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>9585.082640000001</v>
+        <v>9249.468129999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>40202.56741</v>
+        <v>5581.035690000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>6585.11529</v>
+        <v>6563.77797</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>9770.833070000001</v>
+        <v>9651.041670000001</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>8921.759320000001</v>
+        <v>8309.157310000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>10289.03569</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>10006.58134</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>8580.079</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1406.76713</v>
+        <v>2129.72019</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1208.954</v>
+        <v>1720.0699</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1968.12625</v>
+        <v>4818.45137</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>857.9475799999999</v>
+        <v>1219.98598</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2088.61716</v>
+        <v>10063.18061</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>4060.04449</v>
+        <v>4969.849270000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>4458.00453</v>
+        <v>11305.88381</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>5020.21878</v>
+        <v>7526.559179999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>10857.8734</v>
+        <v>11270.47615</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>14238.1959</v>
+        <v>14970.30706</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>110740.29243</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>118436.38637</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>26166.691</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>776.40753</v>
+        <v>5358.406550000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>327.59728</v>
+        <v>4040.55185</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1644.17446</v>
+        <v>450.0049300000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>432.25258</v>
+        <v>388.4114900000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>4255.80809</v>
+        <v>471.96345</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>4421.978980000001</v>
+        <v>3171.29305</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2395.44777</v>
+        <v>1862.30679</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>3459.88832</v>
+        <v>3877.92694</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>4556.19207</v>
+        <v>2206.86869</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>7547.733770000001</v>
+        <v>4704.44684</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3045.96012</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>39752.07595</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>50572.163</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>111764.34285</v>
+        <v>140552.07049</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>151407.60926</v>
+        <v>190332.06824</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>202264.58232</v>
+        <v>221861.23652</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>120273.04271</v>
+        <v>167084.31824</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>289830.27977</v>
+        <v>364354.13489</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>344049.9941</v>
+        <v>423105.49826</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>699572.59707</v>
+        <v>893833.84438</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>464747.69973</v>
+        <v>512485.41017</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>424409.74416</v>
+        <v>760256.18584</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2062452.39659</v>
+        <v>2613616.35253</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>988072.0692799999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1843523.73668</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3812124.394</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>444.29222</v>
+        <v>426.05129</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>3.27822</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>0.49431</v>
+        <v>1.50771</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>460.23668</v>
+        <v>458.43668</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>19.8901</v>
+        <v>0</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>0.00392</v>
@@ -2063,10 +2109,10 @@
         <v>0</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>0.03947999999999999</v>
+        <v>0</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>3.51212</v>
+        <v>1.55571</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>3.76047</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>69.49812</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>66.313</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>172.27264</v>
@@ -2113,257 +2164,292 @@
       <c r="M34" s="48" t="n">
         <v>84.8365</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>23315.58072</v>
+        <v>90899.18281999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>27507.73146</v>
+        <v>29595.50124</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>22821.65434</v>
+        <v>30925.28186</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>29365.39932</v>
+        <v>35245.31195</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>38297.31611</v>
+        <v>37494.85661</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>49311.54547999999</v>
+        <v>117400.09808</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>51691.76818</v>
+        <v>62170.95285</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>76212.75139</v>
+        <v>81257.73337999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>81959.72859</v>
+        <v>64461.10373</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>93792.43847999998</v>
+        <v>99305.74454</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>114152.96749</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>164744.96748</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>224312.005</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>133232.64038</v>
+        <v>164819.20872</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>162455.10926</v>
+        <v>198250.04181</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>225245.86224</v>
+        <v>218507.02445</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>153716.69231</v>
+        <v>189746.70777</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>300928.04041</v>
+        <v>403252.0479</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>398514.84602</v>
+        <v>547867.99853</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>751942.31846</v>
+        <v>867972.48225</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>535485.2004600001</v>
+        <v>541600.98022</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>544026.27439</v>
+        <v>753112.88994</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2120077.64588</v>
+        <v>3046544.41837</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1029922.02357</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2312559.26117</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3993537.821</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1738.98421</v>
+        <v>4463.7882</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1084.59575</v>
+        <v>3720.92337</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2749.88006</v>
+        <v>5678.83699</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>4176.18919</v>
+        <v>7336.2312</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1260.307</v>
+        <v>4736.529149999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>5021.90616</v>
+        <v>7890.3277</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2931.84534</v>
+        <v>6677.765230000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2686.63794</v>
+        <v>5577.12235</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>5631.416990000001</v>
+        <v>8611.403430000002</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2397.73171</v>
+        <v>6269.62576</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>5350.88681</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>9683.06919</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>8382.143</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>15811.7381</v>
+        <v>12445.08664</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>3543.88741</v>
+        <v>7168.07696</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2779.30395</v>
+        <v>4244.85219</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>11844.12562</v>
+        <v>12786.03567</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>9220.568799999999</v>
+        <v>10571.37634</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>10526.22396</v>
+        <v>24549.32629</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>13522.7527</v>
+        <v>25601.26591</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>16050.62325</v>
+        <v>30598.65277</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>23297.36782</v>
+        <v>22260.85856</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>57221.83365</v>
+        <v>66138.94334</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>45455.75453</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>57468.41101999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>58650.106</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>407.00357</v>
+        <v>2716.13271</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>26.60763</v>
+        <v>21.06623</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>10.97514</v>
+        <v>138.81311</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>32.65442</v>
+        <v>28.87192</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>2083.18407</v>
+        <v>301.79866</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>940.62188</v>
+        <v>1752.85919</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>6315.2574</v>
+        <v>2283.42481</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>12.28711</v>
+        <v>12.03392</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>42.52605000000001</v>
+        <v>53.21883</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>18658.15905</v>
+        <v>17528.92604</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>8163.69436</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>19923.44118</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>26760.169</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>107502.286</v>
+        <v>134275.7694</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>144499.80455</v>
+        <v>173861.78846</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>203287.85509</v>
+        <v>189107.68509</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>121737.67347</v>
+        <v>157322.55392</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>271025.67094</v>
+        <v>376631.60521</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>338263.36392</v>
+        <v>454903.43927</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>714753.32953</v>
+        <v>819408.24198</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>485711.45667</v>
+        <v>485354.66485</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>473022.7127</v>
+        <v>687977.7863100001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2011503.63141</v>
+        <v>2923748.70678</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>931468.49963</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2171848.20724</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3832105.81</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>751.32302</v>
+        <v>652.6088599999999</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>0</v>
+        <v>0.92537</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>0</v>
+        <v>3.08718</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>0</v>
@@ -2375,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1.95641</v>
+        <v>0</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>0.13301</v>
+        <v>1597.99162</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>67.65733999999999</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>100.80277</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>17.14</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>47.38047</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>6973.92501</v>
+        <v>10218.44244</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>13300.21377</v>
+        <v>13477.26127</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>16417.848</v>
+        <v>19336.83707</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>15926.04932</v>
+        <v>12269.92759</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>17338.3096</v>
+        <v>11010.73854</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>43687.84075</v>
+        <v>58697.15673</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>14419.13349</v>
+        <v>14001.78432</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>30876.58164</v>
+        <v>19912.84889</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>42032.11782</v>
+        <v>32611.63119</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>30228.63272</v>
+        <v>32790.55911</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>39382.38547</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>53535.32977</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>67622.45299999999</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>45022.21294</v>
+        <v>68214.32742</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>46197.99365999999</v>
+        <v>64378.58057</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>59203.47494</v>
+        <v>124735.84077</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>59651.63018</v>
+        <v>88730.5972</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>100347.21862</v>
+        <v>159813.70485</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>96450.55601</v>
+        <v>145675.29461</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>113699.27004</v>
+        <v>211443.44932</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>163028.93267</v>
+        <v>189745.0359</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>194073.96049</v>
+        <v>299371.63449</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>499346.29268</v>
+        <v>612326.6680600001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>461574.06797</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1219835.37108</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1113364.267</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>40954.06881</v>
+        <v>52296.51790000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>39655.84584</v>
+        <v>46403.32626000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>54081.34039</v>
+        <v>74532.39186</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>55133.96694</v>
+        <v>70140.37215000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>80134.09757</v>
+        <v>124785.16579</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>84689.68734999999</v>
+        <v>128153.20995</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>106800.72876</v>
+        <v>153859.30597</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>150128.56141</v>
+        <v>160152.44066</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>182284.18692</v>
+        <v>284000.07206</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>409801.9815999999</v>
+        <v>532776.19087</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>417574.72548</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>859100.82514</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1024048.133</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>4068.14413</v>
+        <v>15917.80952</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>6542.14782</v>
+        <v>17975.25431</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>5122.13455</v>
+        <v>50203.44891000001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>4517.66324</v>
+        <v>18590.22505</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>20213.12105</v>
+        <v>35028.53906</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>11760.86866</v>
+        <v>17522.08466</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>6898.541279999999</v>
+        <v>57584.14335</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>12900.37126</v>
+        <v>29592.59524</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>11789.77357</v>
+        <v>15371.56243</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>89544.31108</v>
+        <v>79550.47718999999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>43999.34249</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>360734.54594</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>89316.13400000001</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>133255.51573</v>
+        <v>190166.77106</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>244589.70017</v>
+        <v>226731.82018</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>159369.55609</v>
+        <v>166856.89923</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>192661.22854</v>
+        <v>225130.42291</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>272522.7197899999</v>
+        <v>316467.88964</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>307479.36512</v>
+        <v>263353.8268</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>397500.3624700001</v>
+        <v>344984.01395</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>322302.23122</v>
+        <v>172613.54667</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>480648.17344</v>
+        <v>313548.77741</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1013733.24707</v>
+        <v>172365.5243</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1200299.30052</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-670449.33534</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>520769.383</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>29001.25005</v>
+        <v>44894.09178</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>29991.90323</v>
+        <v>27986.6791</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>29969.90326</v>
+        <v>25388.14033</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>37187.46344</v>
+        <v>66063.30123</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>123964.59632</v>
+        <v>207500.35631</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>61149.90294</v>
+        <v>82869.59372</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>77919.61796999999</v>
+        <v>82216.13433999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>75927.0183</v>
+        <v>112288.71754</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>81042.67108000001</v>
+        <v>171546.18829</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>140481.51919</v>
+        <v>163733.31385</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>140943.43848</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>263059.37114</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>257714.878</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>2592.67209</v>
+        <v>2938.08784</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>248.06856</v>
+        <v>316.81767</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>3020.89072</v>
+        <v>2779.90721</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1541.94301</v>
+        <v>2037.16029</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1993.26907</v>
+        <v>2005.9213</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1977.06816</v>
+        <v>2862.83154</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>392.41023</v>
+        <v>1452.92436</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1007.4125</v>
+        <v>2388.13158</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>584.38064</v>
+        <v>495.68471</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>857.2987900000001</v>
+        <v>1108.66691</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3506.481119999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>6987.32677</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>4224.545</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>26408.57796</v>
+        <v>41956.00394</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>29743.83467</v>
+        <v>27669.86143</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>26949.01254</v>
+        <v>22608.23312</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>35645.52043</v>
+        <v>64026.14094</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>121971.32725</v>
+        <v>205494.43501</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>59172.83478</v>
+        <v>80006.76217999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>77527.20774000001</v>
+        <v>80763.20998</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>74919.60579999999</v>
+        <v>109900.58596</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>80458.29044</v>
+        <v>171050.50358</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>139624.2204</v>
+        <v>162624.64694</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>137436.95736</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>256072.04437</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>253490.333</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>26263.41015</v>
+        <v>38716.6802</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>22450.06952</v>
+        <v>24886.12625</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>134212.5451</v>
+        <v>149378.56395</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>37755.3559</v>
+        <v>58461.92999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>35032.21625</v>
+        <v>127168.43728</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>102699.11046</v>
+        <v>165188.73239</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>54934.02925</v>
+        <v>99329.19022000002</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>137641.76606</v>
+        <v>150998.0641</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>71268.09255</v>
+        <v>139151.83449</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>278372.25539</v>
+        <v>232301.74527</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>212206.02212</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>359428.68754</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>146033.106</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>2296.66812</v>
+        <v>3990.12535</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1228.79992</v>
+        <v>1636.21004</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>642.9001</v>
+        <v>2180.79109</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>486.47058</v>
+        <v>204.42818</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1572.54442</v>
+        <v>2216.68505</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1287.96637</v>
+        <v>7935.538430000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>798.24616</v>
+        <v>38.10326999999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>404.51043</v>
+        <v>146.2768</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>737.4848199999999</v>
+        <v>237.41845</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>174.96326</v>
+        <v>1760.87158</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>129.65406</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1554.56073</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>3222.775</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>5780.433639999999</v>
+        <v>15561.43633</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>3267.40976</v>
+        <v>3248.5214</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3147.41375</v>
+        <v>3401.01324</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2051.63804</v>
+        <v>2976.24283</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>4107.25608</v>
+        <v>4324.67646</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2538.51894</v>
+        <v>6884.30316</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4260.27201</v>
+        <v>69291.45363</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>3142.96638</v>
+        <v>8023.78418</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>4934.20678</v>
+        <v>62271.638</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3274.27133</v>
+        <v>3911.3721</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>6586.34549</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>116646.78959</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>13545.414</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>18186.30839</v>
+        <v>19165.11852</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>17953.85984</v>
+        <v>20001.39481</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>130422.23125</v>
+        <v>143796.75962</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>35217.24728</v>
+        <v>55281.25898</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>29352.41575</v>
+        <v>120627.07577</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>98872.62514999999</v>
+        <v>150368.8908</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>49875.51108</v>
+        <v>29999.63332</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>134094.28925</v>
+        <v>142828.00312</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>65596.40095</v>
+        <v>76642.77803999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>274923.0208</v>
+        <v>226629.50159</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>205490.02257</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>241227.33722</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>129264.917</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>135993.35563</v>
+        <v>196344.18264</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>252131.53388</v>
+        <v>229832.37303</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>55126.91425</v>
+        <v>42866.47561</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>192093.33608</v>
+        <v>232731.79415</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>361455.09986</v>
+        <v>396799.80867</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>265930.1576</v>
+        <v>181034.68813</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>420485.9511900001</v>
+        <v>327870.9580700001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>260587.48346</v>
+        <v>133904.20011</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>490422.75197</v>
+        <v>345943.13121</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>875842.51087</v>
+        <v>103797.09288</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1129036.71688</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-766818.65174</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>632451.155</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>31793.08867</v>
+        <v>31352.73236</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>48969.3233</v>
+        <v>49280.87465</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>42957.34342</v>
+        <v>51823.39665</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>48625.47935</v>
+        <v>53338.54503</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>73553.24812</v>
+        <v>89290.36081999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>80273.58310999999</v>
+        <v>94108.16837999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>99061.51427</v>
+        <v>100376.23325</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>89356.507</v>
+        <v>88521.65091000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>123651.26598</v>
+        <v>120796.37985</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>263046.46132</v>
+        <v>262006.82878</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>279068.05251</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>300935.47475</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>381359.156</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>104200.26696</v>
+        <v>164991.45028</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>203162.21058</v>
+        <v>180551.49838</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>12169.57083</v>
+        <v>-8956.921039999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>143467.85673</v>
+        <v>179393.24912</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>287901.85174</v>
+        <v>307509.44785</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>185656.57449</v>
+        <v>86926.51975000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>321424.43692</v>
+        <v>227494.72482</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>171230.97646</v>
+        <v>45382.5492</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>366771.48599</v>
+        <v>225146.75136</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>612796.0495500001</v>
+        <v>-158209.7359</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>849968.66437</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-1067754.12649</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>251091.999</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>311</v>
+        <v>227</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>397</v>
+        <v>302</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>471</v>
+        <v>361</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>444</v>
+        <v>342</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>493</v>
+        <v>363</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>542</v>
+        <v>400</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>596</v>
+        <v>415</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>690</v>
+        <v>490</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>451</v>
+        <v>373</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>386</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>